--- a/biology/Botanique/Polytrichum_commune/Polytrichum_commune.xlsx
+++ b/biology/Botanique/Polytrichum_commune/Polytrichum_commune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polytrichum commune est une espèce de mousses acrocarpe, de la famille des Polytrichaceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polytrichum commune est une espèce de mousses acrocarpe, de la famille des Polytrichaceae.
 </t>
         </is>
       </c>
@@ -511,17 +523,125 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Polytrichum commune est une mousse acrocarpe, non ramifiée, de 30 à 50 cm de haut. Elle forme des tapis ou des buttes pouvant couvrir plusieurs m2.
-Gamétophyte
-Les feuilles sont longues et étroites, avec une base large et transparente, embrassant la tige. Comme tous les Polytrichaceae la nervure occupe presque toute la feuille, et est recouverte de lamelles longitudinales . Chez cette espèce la dernière cellule des lamelles est tronquée, voir emarginée[4].
-Ces lamelles permettent de faciliter la photosynthèse, en améliorant les échanges de CO2 avec l'air[5].
-A l'état hydratée les feuilles sont écartées, formant un angle droit avec la tige. A l'état sec ces feuilles se plaquent contre la tige, la pointe dirigée vers le haut. Cette dessication permet de résister à la sécheresse[6].
-Sporophytes
-L'espèce est dioïque. Les capsules sont constricte à la base, en forme de pavé et sont portés par une longue soie pouvant mesurer 12 cm. Elle est couverte par une coiffe velue, et se termine par un opercule rostré. Le péristome est composé d'un endostome et d'un exostome, contenant 32 dents chacuns [4],[7],[8].
-Identification
-La grande taille de l'espèce, la présence d'une gaine embrassante blanchâtre à la base des feuilles, visible sur la tige, ainsi que la forme des dernières cellules des lamelles permet de différencier commune des autres espèces proches[4],[7]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Polytrichum_commune</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polytrichum_commune</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gamétophyte</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont longues et étroites, avec une base large et transparente, embrassant la tige. Comme tous les Polytrichaceae la nervure occupe presque toute la feuille, et est recouverte de lamelles longitudinales . Chez cette espèce la dernière cellule des lamelles est tronquée, voir emarginée.
+Ces lamelles permettent de faciliter la photosynthèse, en améliorant les échanges de CO2 avec l'air.
+A l'état hydratée les feuilles sont écartées, formant un angle droit avec la tige. A l'état sec ces feuilles se plaquent contre la tige, la pointe dirigée vers le haut. Cette dessication permet de résister à la sécheresse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polytrichum_commune</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polytrichum_commune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sporophytes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est dioïque. Les capsules sont constricte à la base, en forme de pavé et sont portés par une longue soie pouvant mesurer 12 cm. Elle est couverte par une coiffe velue, et se termine par un opercule rostré. Le péristome est composé d'un endostome et d'un exostome, contenant 32 dents chacuns .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polytrichum_commune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polytrichum_commune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Identification</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La grande taille de l'espèce, la présence d'une gaine embrassante blanchâtre à la base des feuilles, visible sur la tige, ainsi que la forme des dernières cellules des lamelles permet de différencier commune des autres espèces proches,. 
 			Vue au microscope de la gaine embrassante à la base de la feuille de Polytrichum commune.
 			Vue au microscope des dents du péristome de Polytrichum commune.
 			Capsules de Polytrichum commune, à quatre angles. Ici la coiffe et l'opercule sont tombées.
@@ -535,100 +655,106 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Polytrichum_commune</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polytrichum_commune</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution et menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre sur tous les continents, elle est commune en France, sauf dans la région méditerranéenne, et certaines région calcaires[3],[8]. Elle n'est pas menacée en Europe, ni dans les régions où elle a été évaluée en France[9],[10],[11].
-Elle est déterminante ZNIEFF en Picardie, Hauts-de-France et Centre-Val de Loire[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre sur tous les continents, elle est commune en France, sauf dans la région méditerranéenne, et certaines région calcaires,. Elle n'est pas menacée en Europe, ni dans les régions où elle a été évaluée en France.
+Elle est déterminante ZNIEFF en Picardie, Hauts-de-France et Centre-Val de Loire.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Polytrichum_commune</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polytrichum_commune</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce des milieux humides et acides, qui se développe au sol. On la trouve dans les milieux tourbeux, les marais, les bords d'étangs, souvent en contexte ombragé[7],[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce des milieux humides et acides, qui se développe au sol. On la trouve dans les milieux tourbeux, les marais, les bords d'étangs, souvent en contexte ombragé,.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Polytrichum_commune</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Polytrichum_commune</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (29 octobre 2018)[2] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 octobre 2018) :
 variété Polytrichum commune var. cubicum (Lindb.) Habeeb
 variété Polytrichum commune var. deflexifolium (Warnst.) Podp.
 variété Polytrichum commune var. perigoniale (Michx.) Hampe
-Selon Tropicos                                           (29 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Polytrichum commune subsp. cubicum Lindb.
 sous-espèce Polytrichum commune subsp. jensenii (I. Hagen) Albr. Rohn.
 sous-espèce Polytrichum commune subsp. perigoniale (Michx.) Kindb.
